--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -295,6 +295,9 @@
     <t>['14', '53', '84', '90+7']</t>
   </si>
   <si>
+    <t>['79', '90+3']</t>
+  </si>
+  <si>
     <t>['19', '53']</t>
   </si>
   <si>
@@ -329,6 +332,9 @@
   </si>
   <si>
     <t>['18', '90+2']</t>
+  </si>
+  <si>
+    <t>['18', '63']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,7 +940,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1507,7 +1513,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1698,7 +1704,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1785,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2170,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2271,7 +2277,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2653,7 +2659,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3608,7 +3614,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3799,7 +3805,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -3990,7 +3996,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4181,7 +4187,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4268,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -4372,7 +4378,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4563,7 +4569,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -4653,7 +4659,7 @@
         <v>0.5</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>1.43</v>
@@ -4754,7 +4760,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -4945,7 +4951,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5469,6 +5475,197 @@
       </c>
       <c r="BK25">
         <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5019293</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44996.69791666666</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>13</v>
+      </c>
+      <c r="T26">
+        <v>2.6</v>
+      </c>
+      <c r="U26">
+        <v>2.05</v>
+      </c>
+      <c r="V26">
+        <v>3.9</v>
+      </c>
+      <c r="W26">
+        <v>1.4</v>
+      </c>
+      <c r="X26">
+        <v>2.75</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>1.36</v>
+      </c>
+      <c r="AA26">
+        <v>7</v>
+      </c>
+      <c r="AB26">
+        <v>1.08</v>
+      </c>
+      <c r="AC26">
+        <v>1.63</v>
+      </c>
+      <c r="AD26">
+        <v>3.5</v>
+      </c>
+      <c r="AE26">
+        <v>5.15</v>
+      </c>
+      <c r="AF26">
+        <v>1.07</v>
+      </c>
+      <c r="AG26">
+        <v>7.5</v>
+      </c>
+      <c r="AH26">
+        <v>1.33</v>
+      </c>
+      <c r="AI26">
+        <v>3.25</v>
+      </c>
+      <c r="AJ26">
+        <v>1.93</v>
+      </c>
+      <c r="AK26">
+        <v>1.72</v>
+      </c>
+      <c r="AL26">
+        <v>1.85</v>
+      </c>
+      <c r="AM26">
+        <v>1.85</v>
+      </c>
+      <c r="AN26">
+        <v>1.25</v>
+      </c>
+      <c r="AO26">
+        <v>1.33</v>
+      </c>
+      <c r="AP26">
+        <v>1.73</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>0.5</v>
+      </c>
+      <c r="AS26">
+        <v>1.67</v>
+      </c>
+      <c r="AT26">
+        <v>0.67</v>
+      </c>
+      <c r="AU26">
+        <v>1.71</v>
+      </c>
+      <c r="AV26">
+        <v>1.27</v>
+      </c>
+      <c r="AW26">
+        <v>2.98</v>
+      </c>
+      <c r="AX26">
+        <v>1.58</v>
+      </c>
+      <c r="AY26">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ26">
+        <v>2.95</v>
+      </c>
+      <c r="BA26">
+        <v>1.24</v>
+      </c>
+      <c r="BB26">
+        <v>1.5</v>
+      </c>
+      <c r="BC26">
+        <v>1.8</v>
+      </c>
+      <c r="BD26">
+        <v>2.25</v>
+      </c>
+      <c r="BE26">
+        <v>3.04</v>
+      </c>
+      <c r="BF26">
+        <v>5</v>
+      </c>
+      <c r="BG26">
+        <v>5</v>
+      </c>
+      <c r="BH26">
+        <v>10</v>
+      </c>
+      <c r="BI26">
+        <v>6</v>
+      </c>
+      <c r="BJ26">
+        <v>15</v>
+      </c>
+      <c r="BK26">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>2.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
         <v>0.67</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>1.15</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU13" t="n">
         <v>1.66</v>
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>1.3</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>1.95</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT16" t="n">
         <v>2.33</v>
@@ -4151,7 +4151,7 @@
         <v>2.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.73</v>
@@ -4354,7 +4354,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU19" t="n">
         <v>2.15</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT21" t="n">
         <v>0.67</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -6029,6 +6029,818 @@
         <v>16</v>
       </c>
       <c r="BK27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5019295</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['10', '50']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>6</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5019298</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['20', '54']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['42', '88']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>12</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5019294</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45002.69791666666</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['55', '58']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5019296</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45002.69791666666</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>14</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V31" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK31" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2930,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
         <v>1.21</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT13" t="n">
         <v>0.33</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU14" t="n">
         <v>1.3</v>
@@ -3745,7 +3745,7 @@
         <v>0.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU17" t="n">
         <v>1.79</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT19" t="n">
         <v>0.33</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU22" t="n">
         <v>1.18</v>
@@ -5163,10 +5163,10 @@
         <v>1.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.26</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU25" t="n">
         <v>1.09</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT26" t="n">
         <v>0.67</v>
@@ -6587,7 +6587,7 @@
         <v>3</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.75</v>
@@ -6842,6 +6842,1021 @@
       </c>
       <c r="BK31" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5019301</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5019302</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['16', '38', '52']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>8</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V33" t="n">
+        <v>10</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5019300</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['22', '37', '71', '76']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5019299</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
+      <c r="S35" t="n">
+        <v>11</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5019303</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45017.65625</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>10</v>
+      </c>
+      <c r="S36" t="n">
+        <v>17</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT3" t="n">
         <v>0.25</v>
@@ -1309,7 +1309,7 @@
         <v>1.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1715,7 +1715,7 @@
         <v>1.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT7" t="n">
         <v>1.33</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
         <v>0.33</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU15" t="n">
         <v>1.95</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU17" t="n">
         <v>1.79</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT20" t="n">
         <v>2.5</v>
@@ -4760,7 +4760,7 @@
         <v>0.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.43</v>
@@ -4960,10 +4960,10 @@
         <v>0.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU22" t="n">
         <v>1.18</v>
@@ -5163,7 +5163,7 @@
         <v>1.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>2.25</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -5572,7 +5572,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU25" t="n">
         <v>1.09</v>
@@ -5775,7 +5775,7 @@
         <v>1.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.71</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT30" t="n">
         <v>0.25</v>
@@ -6787,10 +6787,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU31" t="n">
         <v>1.78</v>
@@ -7193,7 +7193,7 @@
         <v>0.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>0.25</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU34" t="n">
         <v>1.63</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU35" t="n">
         <v>1.45</v>
@@ -7857,6 +7857,1021 @@
       </c>
       <c r="BK36" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5019304</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['44', '67']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6</v>
+      </c>
+      <c r="S37" t="n">
+        <v>9</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5019305</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>7</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V38" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5019306</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['16', '89']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>7</v>
+      </c>
+      <c r="R39" t="n">
+        <v>8</v>
+      </c>
+      <c r="S39" t="n">
+        <v>15</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5019307</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['15', '64', '75', '90']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>9</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5019308</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.4</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>1.6</v>
@@ -1918,7 +1918,7 @@
         <v>2.25</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.8</v>
@@ -2730,7 +2730,7 @@
         <v>0.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU12" t="n">
         <v>1.21</v>
@@ -3136,7 +3136,7 @@
         <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>1.66</v>
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU14" t="n">
         <v>1.3</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>1.95</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT16" t="n">
         <v>2.5</v>
@@ -4354,7 +4354,7 @@
         <v>1.25</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>2.15</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU23" t="n">
         <v>1.26</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.42</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT25" t="n">
         <v>1.8</v>
@@ -5975,10 +5975,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>2.19</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>2.27</v>
@@ -6587,7 +6587,7 @@
         <v>2.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.75</v>
@@ -6787,10 +6787,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU31" t="n">
         <v>1.78</v>
@@ -6990,7 +6990,7 @@
         <v>2.33</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT32" t="n">
         <v>2.5</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.2</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT35" t="n">
         <v>1.6</v>
@@ -7805,7 +7805,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU36" t="n">
         <v>1.81</v>
@@ -8208,7 +8208,7 @@
         <v>1.25</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>1.6</v>
@@ -8414,7 +8414,7 @@
         <v>1.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.45</v>
@@ -8871,6 +8871,1021 @@
         <v>8</v>
       </c>
       <c r="BK41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5019309</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45026.54166666666</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>6</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5019310</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45026.625</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>13</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>16</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5019312</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45026.65625</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['52', '58']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>9</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5019311</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45026.65625</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['19', '34', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5019313</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45026.66666666666</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['21', '25', '58']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>10</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>13</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK46" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -9065,16 +9065,16 @@
         <v>0</v>
       </c>
       <c r="BH42" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BK42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -9065,16 +9065,16 @@
         <v>0</v>
       </c>
       <c r="BH42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BJ42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT11" t="n">
         <v>1.4</v>
@@ -3136,7 +3136,7 @@
         <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU13" t="n">
         <v>1.66</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT16" t="n">
         <v>2.5</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT17" t="n">
         <v>1.6</v>
@@ -4354,7 +4354,7 @@
         <v>1.25</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU19" t="n">
         <v>2.15</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT20" t="n">
         <v>2.5</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU21" t="n">
         <v>1.43</v>
@@ -4960,7 +4960,7 @@
         <v>0.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT22" t="n">
         <v>1.6</v>
@@ -5775,7 +5775,7 @@
         <v>1.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU26" t="n">
         <v>1.71</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>2.27</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT30" t="n">
         <v>0.2</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT37" t="n">
         <v>1.8</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU40" t="n">
         <v>1.52</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU45" t="n">
         <v>2.09</v>
@@ -9832,7 +9832,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT46" t="n">
         <v>0.2</v>
@@ -9887,6 +9887,615 @@
       </c>
       <c r="BK46" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5019314</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45030.65625</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['14', '62']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['19', '23', '30']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5019316</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45030.65625</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5019317</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45030.65625</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['54', '77']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['18', '51']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>5</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
         <v>0.2</v>
@@ -1309,7 +1309,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT6" t="n">
         <v>1.8</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.4</v>
@@ -3745,7 +3745,7 @@
         <v>1.2</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.8</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>1.79</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.4</v>
@@ -4557,7 +4557,7 @@
         <v>0.8</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -4963,7 +4963,7 @@
         <v>0.8</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.18</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT26" t="n">
         <v>0.4</v>
@@ -6993,7 +6993,7 @@
         <v>1.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU32" t="n">
         <v>0.99</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT34" t="n">
         <v>1.8</v>
@@ -7602,7 +7602,7 @@
         <v>1.4</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.45</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT36" t="n">
         <v>2.4</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.84</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT39" t="n">
         <v>1.4</v>
@@ -9951,13 +9951,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T47" t="n">
         <v>2.4</v>
@@ -10074,22 +10074,22 @@
         <v>2.79</v>
       </c>
       <c r="BF47" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BG47" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH47" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI47" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ47" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BK47" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -10496,6 +10496,412 @@
       </c>
       <c r="BK49" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5019318</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45031.65625</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>8</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5019315</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45032.45833333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['71', '72']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['44', '79']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6</v>
+      </c>
+      <c r="S51" t="n">
+        <v>7</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2023.xlsx
@@ -10886,22 +10886,22 @@
         <v>3.08</v>
       </c>
       <c r="BF51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG51" t="n">
         <v>3</v>
       </c>
-      <c r="BG51" t="n">
-        <v>0</v>
-      </c>
       <c r="BH51" t="n">
         <v>2</v>
       </c>
       <c r="BI51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK51" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
